--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>318894.2909555864</v>
+        <v>317006.7094391846</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>140.619228472027</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>335.6838240068973</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.7345273091478</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>7.744651378236042</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>126.1512633158925</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>217.868871192146</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>45.15939909649886</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>83.23408347637928</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>109.4422623037125</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>71.17856971276713</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.8271244776257</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>121.2699779972377</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710065</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.9612206606974</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750013</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>204.4650040757765</v>
       </c>
       <c r="U16" t="n">
-        <v>137.6981639347283</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.70660457397426</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>25.81463537662894</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>15.74955790720887</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.7440036237166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,10 +2333,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002174</v>
+        <v>180.0931654365654</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>111.6456757880022</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>5.459896748108541</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>94.94962312135308</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.60092856329338</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329079</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C2" t="n">
-        <v>1838.661061815299</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D2" t="n">
-        <v>1480.395363208549</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E2" t="n">
-        <v>1094.607110610304</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103785</v>
+        <v>61.76586200040086</v>
       </c>
       <c r="C4" t="n">
-        <v>229.3976778824716</v>
+        <v>61.76586200040086</v>
       </c>
       <c r="D4" t="n">
-        <v>229.3976778824716</v>
+        <v>61.76586200040086</v>
       </c>
       <c r="E4" t="n">
-        <v>229.3976778824716</v>
+        <v>61.76586200040086</v>
       </c>
       <c r="F4" t="n">
-        <v>229.3976778824716</v>
+        <v>61.76586200040086</v>
       </c>
       <c r="G4" t="n">
-        <v>229.3976778824716</v>
+        <v>61.76586200040086</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>61.76586200040086</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>243.4143268306406</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>243.4143268306406</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1490.978909181594</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C5" t="n">
-        <v>1490.978909181594</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D5" t="n">
-        <v>1490.978909181594</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1165.659149439633</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>754.6732446500255</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,22 +4562,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1881.118241157406</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1490.978909181594</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3069090307624</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3069090307624</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3069090307624</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3069090307624</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>183.6743380475526</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>352.6741383092202</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721084</v>
+        <v>1803.3088759247</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316967</v>
+        <v>1434.346358984288</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097701</v>
+        <v>1076.080660377538</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>690.2924077792936</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>279.3065029896861</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362301</v>
+        <v>2189.908715988822</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>698.712065060056</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>698.712065060056</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620387</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.9299350185086</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5033,7 +5033,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5057,31 +5057,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>549.3807322743206</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>380.4445493464137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>380.4445493464137</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>232.5314557640206</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5206,43 +5206,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471171</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473453</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387593</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045604</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>731.0291971045604</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>731.0291971045604</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,13 +5261,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.0201325405894</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405894</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405894</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1292.385963410653</v>
       </c>
       <c r="U16" t="n">
-        <v>936.1217907834368</v>
+        <v>1003.257324624211</v>
       </c>
       <c r="V16" t="n">
-        <v>681.43730257755</v>
+        <v>1003.257324624211</v>
       </c>
       <c r="W16" t="n">
-        <v>392.0201325405894</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="X16" t="n">
-        <v>392.0201325405894</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="Y16" t="n">
-        <v>392.0201325405894</v>
+        <v>713.8401545872508</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,28 +5531,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.2225136306378</v>
+        <v>757.4105722479406</v>
       </c>
       <c r="C19" t="n">
-        <v>509.2863307027309</v>
+        <v>588.4743893200338</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>438.357749907698</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>438.357749907698</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>291.4678024097877</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>123.292480729608</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104475</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X19" t="n">
-        <v>757.7241344124302</v>
+        <v>1159.85161622171</v>
       </c>
       <c r="Y19" t="n">
-        <v>757.7241344124302</v>
+        <v>939.0590370781804</v>
       </c>
     </row>
     <row r="20">
@@ -5738,25 +5738,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,16 +5768,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0685056491545</v>
+        <v>678.2225136306376</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1323227212475</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D22" t="n">
-        <v>260.0156833089118</v>
+        <v>359.169691290395</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>359.169691290395</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1388.063741645057</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1188.143731560609</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1188.143731560609</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>899.0150927741678</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>899.0150927741678</v>
       </c>
       <c r="W22" t="n">
-        <v>1209.499100520942</v>
+        <v>899.0150927741678</v>
       </c>
       <c r="X22" t="n">
-        <v>981.5095496229243</v>
+        <v>899.0150927741678</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7169704793943</v>
+        <v>678.2225136306376</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003444</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155918</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,19 +6069,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1205.928878799965</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1205.928878799965</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1205.928878799965</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1205.928878799965</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>916.5117087630043</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>916.5117087630043</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>916.5117087630043</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>397.7517393246783</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1386.142860671031</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1162.357445460537</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U28" t="n">
-        <v>873.2288066740953</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>618.5443184682084</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W28" t="n">
-        <v>618.5443184682084</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X28" t="n">
-        <v>618.5443184682084</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>397.7517393246783</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,25 +6446,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,16 +6479,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6503,10 +6503,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>567.5935089039625</v>
+        <v>469.5113192794986</v>
       </c>
       <c r="C31" t="n">
-        <v>454.4181912574265</v>
+        <v>469.5113192794986</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264618</v>
+        <v>375.1555451485336</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264618</v>
+        <v>283.0033168475113</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962058</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818954</v>
+        <v>902.6804289818928</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652489</v>
+        <v>730.4517433652463</v>
       </c>
       <c r="Y31" t="n">
-        <v>693.4811084528313</v>
+        <v>565.4200295030876</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,34 +6695,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7087,13 +7087,13 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,28 +7239,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506726</v>
@@ -7321,16 +7321,16 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7366,7 +7366,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7546,16 +7546,16 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7564,31 +7564,31 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7795,7 +7795,7 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7837,16 +7837,16 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783527</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>11.45982736223382</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,13 +23464,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338795</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,16 +23701,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>17.08255698261274</v>
       </c>
       <c r="U16" t="n">
-        <v>148.539188463849</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.125375607963</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>123.0991929909072</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>130.6844047393603</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0.2203487800761968</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338589</v>
+        <v>17.82764454703778</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>86.27513419560104</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>246.6777465757195</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>29.67910043202713</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.7804681602442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1070036.337222677</v>
+        <v>1070036.337222678</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1070036.337222677</v>
+        <v>1070036.337222678</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="E2" t="n">
+        <v>312823.2477901669</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312823.2477901669</v>
+      </c>
+      <c r="G2" t="n">
+        <v>312823.2477901668</v>
+      </c>
+      <c r="H2" t="n">
         <v>312823.247790167</v>
-      </c>
-      <c r="F2" t="n">
-        <v>312823.247790167</v>
-      </c>
-      <c r="G2" t="n">
-        <v>312823.247790167</v>
-      </c>
-      <c r="H2" t="n">
-        <v>312823.2477901668</v>
       </c>
       <c r="I2" t="n">
         <v>312823.2477901669</v>
@@ -26338,19 +26338,19 @@
         <v>312823.2477901669</v>
       </c>
       <c r="K2" t="n">
-        <v>325457.7098762157</v>
+        <v>325457.7098762156</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="P2" t="n">
         <v>328416.7079457135</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284576</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563568</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275963</v>
+        <v>37464.45686275956</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275965</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26482,28 +26482,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002538</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26525,43 +26525,43 @@
         <v>88782.67163108112</v>
       </c>
       <c r="D6" t="n">
-        <v>88782.67163108112</v>
+        <v>88782.67163108106</v>
       </c>
       <c r="E6" t="n">
-        <v>-319369.7842568849</v>
+        <v>-319467.243382857</v>
       </c>
       <c r="F6" t="n">
-        <v>205790.2522200113</v>
+        <v>205692.793094039</v>
       </c>
       <c r="G6" t="n">
-        <v>205790.2522200113</v>
+        <v>205692.793094039</v>
       </c>
       <c r="H6" t="n">
-        <v>205790.2522200111</v>
+        <v>205692.7930940391</v>
       </c>
       <c r="I6" t="n">
-        <v>205790.2522200111</v>
+        <v>205692.793094039</v>
       </c>
       <c r="J6" t="n">
-        <v>29367.03302741822</v>
+        <v>29269.57390144627</v>
       </c>
       <c r="K6" t="n">
-        <v>151456.6039075115</v>
+        <v>151438.1101695771</v>
       </c>
       <c r="L6" t="n">
-        <v>182894.2384620618</v>
+        <v>182894.2384620616</v>
       </c>
       <c r="M6" t="n">
-        <v>58436.13002909106</v>
+        <v>58436.13002909129</v>
       </c>
       <c r="N6" t="n">
-        <v>193237.1452629281</v>
+        <v>193237.1452629285</v>
       </c>
       <c r="O6" t="n">
-        <v>193237.1452629285</v>
+        <v>193237.1452629283</v>
       </c>
       <c r="P6" t="n">
-        <v>149074.5399600827</v>
+        <v>149074.5399600828</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,10 +26753,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>266.2568172696845</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>50.55411464915625</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>117.4363615326473</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>127.2209704141022</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7791067563693</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>195.915298828649</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>100.2616489264324</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>72.93680536541586</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>245.2407793169705</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>342.6056003080279</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31.00485570431161</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>45.97684310139013</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.169834245014017e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285572</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262129</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789704</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
